--- a/biology/Zoologie/Hynobius_nigrescens/Hynobius_nigrescens.xlsx
+++ b/biology/Zoologie/Hynobius_nigrescens/Hynobius_nigrescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salamandre noire du Japon
-Hynobius nigrescens, ou Salamandre noire du Japon, est une espèce d'urodèles de la famille des Hynobiidae[1].
+Hynobius nigrescens, ou Salamandre noire du Japon, est une espèce d'urodèles de la famille des Hynobiidae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Kurosanjōuo, Japon
 Japanese black salamander et Sendai salamander, monde anglophone</t>
@@ -543,9 +557,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1907, la Salamandre noire du Japon a été découverte à Nikkō, dans la rivière Yu, par le zoologiste japonais Katsuya Tago (1877-1943) et, à Sendai, par le zoologiste américain Leonhard Hess Stejneger (1851-1943). Nommée Salamandre de Nikkō par le premier, elle a été finalement appelée Salamandre noire du Japon en tenant compte de l'antériorité de la découverte de Stejneger[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1907, la Salamandre noire du Japon a été découverte à Nikkō, dans la rivière Yu, par le zoologiste japonais Katsuya Tago (1877-1943) et, à Sendai, par le zoologiste américain Leonhard Hess Stejneger (1851-1943). Nommée Salamandre de Nikkō par le premier, elle a été finalement appelée Salamandre noire du Japon en tenant compte de l'antériorité de la découverte de Stejneger.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Japon. Elle se rencontre dans les régions de Tōhoku, de Kantō et de Hokuriku dans le nord de l'île de Honshū et sur l'île de Sado du niveau de la mer jusqu'à 2 500 m d'altitude[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Japon. Elle se rencontre dans les régions de Tōhoku, de Kantō et de Hokuriku dans le nord de l'île de Honshū et sur l'île de Sado du niveau de la mer jusqu'à 2 500 m d'altitude.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hynobius nigrescens mesure de 60 à 80 mm sans la queue et de 120 à 190 mm de longueur totale[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hynobius nigrescens mesure de 60 à 80 mm sans la queue et de 120 à 190 mm de longueur totale.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Stejneger, 1907 : Herpetology of Japan and adjacent Territory. United States National Museum Bulletin, vol. 58, p. 1-577 (texte intégral).</t>
         </is>
